--- a/Normalisation.xlsx
+++ b/Normalisation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D9AD4B-88E5-4AED-9C88-06FE7B8BB849}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CBAA0CB0-8A83-4D47-8183-0F06DB4CE835}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1NF - 2NF" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="2NF - 3NF" sheetId="2" r:id="rId3"/>
     <sheet name="3NF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="56">
   <si>
     <t>AccountNumber</t>
   </si>
@@ -186,12 +186,18 @@
   <si>
     <t>Customer / Bank</t>
   </si>
+  <si>
+    <t>Customer Account</t>
+  </si>
+  <si>
+    <t>TD2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +234,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -324,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,11 +354,26 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2758,6 +2787,446 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>277440</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>395750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>135788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Straight Connector 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ACB2AB0-B2E1-441A-ADB2-07F30A9F43C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1926626" y="6500493"/>
+          <a:ext cx="118310" cy="112295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>462497</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>580807</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114016</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Connector 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0FB3D6-FBD5-44D4-BD53-EF72D2DA824C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3864283" y="6478721"/>
+          <a:ext cx="118310" cy="112295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>271997</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390307</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114016</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B8F6DE-39B2-483C-9F20-D1517DCBFB12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5801940" y="6478721"/>
+          <a:ext cx="118310" cy="112295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>315540</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>433850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114016</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170ED96B-31BB-4B41-9C6C-31658B8CD649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6542169" y="6478721"/>
+          <a:ext cx="118310" cy="112295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>283028</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>401338</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>134067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C80C88-7110-440B-8927-782A67B471B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1932214" y="1926772"/>
+          <a:ext cx="118310" cy="112295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>440871</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>559181</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>117739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80DD3C26-FD1C-4794-BDDB-8972C038FE72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3842657" y="1910444"/>
+          <a:ext cx="118310" cy="112295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>277586</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>395896</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A8E91C-95F3-4118-A9CF-D284F29E9166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5807529" y="1915887"/>
+          <a:ext cx="118310" cy="112295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472096</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>112296</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Connector 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94DD06B-1F24-4182-8A94-04EF0D3C659C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6580415" y="1905001"/>
+          <a:ext cx="118310" cy="112295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3511,6 +3980,615 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="9244693" y="2112472"/>
+          <a:ext cx="118310" cy="112295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>337038</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>505558</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156603</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EADFEB8-EE3B-4D64-BADF-72939718BF03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="945173" y="2252103"/>
+          <a:ext cx="3839308" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>303102</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>303102</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>151591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F383C5-6914-4FD9-95E3-66E535D5C847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1951660" y="2096695"/>
+          <a:ext cx="0" cy="150396"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498231</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498231</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160808</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D5BB6F-CE12-4B87-94A3-1304FADC1347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4777154" y="2080846"/>
+          <a:ext cx="0" cy="175462"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>293077</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>505559</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90661</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0532076B-DA9B-4556-B6FE-30677173690E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="2567161"/>
+          <a:ext cx="1069732" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>303103</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>303103</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F3CD2F-BACB-488A-9D9A-6C3DE7C56FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3724776" y="2411753"/>
+          <a:ext cx="0" cy="150396"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498232</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498232</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>94866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EF913B-B545-40EE-8129-EA611BC2ABB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4777155" y="2395904"/>
+          <a:ext cx="0" cy="175462"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>345598</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>345598</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>150125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE933CC-BEB9-4233-AADF-ED4218C68B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="953733" y="2095229"/>
+          <a:ext cx="0" cy="150396"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313593</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313593</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137362</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F154467-1A60-4E2F-8C0C-E3EB7AF99379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3735266" y="2057400"/>
+          <a:ext cx="0" cy="175462"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480647</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480647</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>150550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002B5F3F-EDFB-4B2F-9D1C-F9730B48836A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2891205" y="2070588"/>
+          <a:ext cx="0" cy="175462"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441710</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68768</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7248067A-A079-4EF5-9D8D-C58F23E3ADC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4720633" y="2432973"/>
+          <a:ext cx="118310" cy="112295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440245</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558555</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125918</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279D1EE4-B6DB-47EB-8037-496893A14F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4719168" y="2109123"/>
           <a:ext cx="118310" cy="112295"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3807,15 +4885,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -4086,14 +5164,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
@@ -4123,6 +5203,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
@@ -4152,6 +5233,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -4181,6 +5263,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
@@ -4210,6 +5293,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
@@ -4239,6 +5323,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
@@ -4268,6 +5353,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
       <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
@@ -4297,6 +5383,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
@@ -4326,6 +5413,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -4354,12 +5442,19 @@
         <v>21</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+    </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="21" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+    </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -4389,6 +5484,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
       <c r="B26" s="8" t="s">
         <v>8</v>
       </c>
@@ -4418,6 +5514,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
       <c r="B27" s="8" t="s">
         <v>8</v>
       </c>
@@ -4447,6 +5544,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
@@ -4476,6 +5574,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
       <c r="B29" s="8" t="s">
         <v>10</v>
       </c>
@@ -4505,6 +5604,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
       <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
@@ -4534,6 +5634,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
@@ -4563,6 +5664,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
       <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
@@ -4592,6 +5694,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
       <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
@@ -4620,18 +5723,27 @@
         <v>21</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+    </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="20" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+    </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="18" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+    </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4952,8 +6064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB8B18-5857-4843-AAF4-C59A18A2B916}">
   <dimension ref="B1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,26 +6083,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5098,20 +6210,20 @@
       <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>22</v>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -5130,19 +6242,19 @@
       <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5162,20 +6274,20 @@
       <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>23</v>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -5194,20 +6306,20 @@
       <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>23</v>
+      <c r="H8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -5226,21 +6338,6 @@
       <c r="F9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
@@ -5257,21 +6354,6 @@
       </c>
       <c r="F10" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5285,10 +6367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140FBCCE-EEAC-45C5-B50A-753A7E997657}">
-  <dimension ref="B2:L24"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H24"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5300,15 +6382,16 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5336,7 +6419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -5368,7 +6451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -5400,7 +6483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
@@ -5416,23 +6499,23 @@
       <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5448,23 +6531,23 @@
       <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -5480,23 +6563,23 @@
       <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
@@ -5512,23 +6595,23 @@
       <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
@@ -5544,23 +6627,13 @@
       <c r="F9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
@@ -5576,33 +6649,32 @@
       <c r="F10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G12" s="1" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="15" t="s">
+      <c r="G12" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F16" s="3" t="s">
         <v>2</v>
       </c>
@@ -5791,10 +6863,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5B253C-8CC3-491C-96AE-B8AC45EAD542}">
-  <dimension ref="B1:N10"/>
+  <dimension ref="B1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5802,39 +6874,46 @@
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="H1" s="16" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5843,29 +6922,33 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -5878,29 +6961,33 @@
       <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -5913,29 +7000,33 @@
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
@@ -5948,29 +7039,33 @@
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5983,29 +7078,33 @@
       <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -6018,29 +7117,18 @@
       <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F7" s="8"/>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
@@ -6053,29 +7141,18 @@
       <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F8" s="8"/>
+      <c r="J8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
@@ -6088,29 +7165,9 @@
       <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
@@ -6123,33 +7180,14 @@
       <c r="E10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="F10" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="4">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Normalisation.xlsx
+++ b/Normalisation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CBAA0CB0-8A83-4D47-8183-0F06DB4CE835}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9842040C-194C-4A72-996A-DDE1A6072EF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1NF - 2NF" sheetId="1" r:id="rId1"/>
@@ -6064,8 +6064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB8B18-5857-4843-AAF4-C59A18A2B916}">
   <dimension ref="B1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6865,8 +6865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5B253C-8CC3-491C-96AE-B8AC45EAD542}">
   <dimension ref="B1:P10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6919,11 +6919,11 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
